--- a/Mid term/Test Case/Mid term Test Case Assignment 3.xlsx
+++ b/Mid term/Test Case/Mid term Test Case Assignment 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Nashtech\Mid term\Test design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Nashtech\Mid term\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69A37D9-E2EC-476E-8822-A2043F4C3BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B2FD6-9A5F-4249-BA10-882350BAF1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{02CC2052-6F2B-4E0E-B93A-A1851046750D}"/>
   </bookViews>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="1" shapeId="0" xr:uid="{41D9BEAD-5CAF-43A8-A662-66A9E0EB01E0}">
+    <comment ref="F87" authorId="1" shapeId="0" xr:uid="{41D9BEAD-5CAF-43A8-A662-66A9E0EB01E0}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="1" shapeId="0" xr:uid="{6547ED97-9DF5-4940-B8CD-3CBF817E4C07}">
+    <comment ref="F88" authorId="1" shapeId="0" xr:uid="{6547ED97-9DF5-4940-B8CD-3CBF817E4C07}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F89" authorId="1" shapeId="0" xr:uid="{F89317D3-5144-496C-ABE6-61C28FCE403E}">
+    <comment ref="F90" authorId="1" shapeId="0" xr:uid="{F89317D3-5144-496C-ABE6-61C28FCE403E}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F102" authorId="1" shapeId="0" xr:uid="{BEE8EF2A-21EC-4141-BE8E-894F20B10FC7}">
+    <comment ref="F103" authorId="1" shapeId="0" xr:uid="{BEE8EF2A-21EC-4141-BE8E-894F20B10FC7}">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G102" authorId="1" shapeId="0" xr:uid="{105547A9-A836-449D-9189-D3CBB44129C5}">
+    <comment ref="G103" authorId="1" shapeId="0" xr:uid="{105547A9-A836-449D-9189-D3CBB44129C5}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F130" authorId="1" shapeId="0" xr:uid="{8DB2644B-F042-4334-9755-B8FAE635CA29}">
+    <comment ref="F131" authorId="1" shapeId="0" xr:uid="{8DB2644B-F042-4334-9755-B8FAE635CA29}">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F132" authorId="1" shapeId="0" xr:uid="{4AC6A30D-8F36-4EE9-8A83-F52F5B0BB461}">
+    <comment ref="F133" authorId="1" shapeId="0" xr:uid="{4AC6A30D-8F36-4EE9-8A83-F52F5B0BB461}">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="186">
   <si>
     <t>User Story 2</t>
   </si>
@@ -899,6 +899,16 @@
   </si>
   <si>
     <t>The result page shows 10 items sorted in Default ( Best match keyword )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that User can search product by entering Wildcard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on the search box
+2. Enter the Wildcard </t>
+  </si>
+  <si>
+    <t>Show result that including Wildcard</t>
   </si>
 </sst>
 </file>
@@ -1386,6 +1396,45 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1402,45 +1451,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1758,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8483E831-5D5C-4FE4-892A-2F8425F39E30}">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1777,11 +1787,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1792,9 +1802,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1805,11 +1815,11 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1820,11 +1830,11 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1835,9 +1845,9 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1893,15 +1903,15 @@
         <v>9</v>
       </c>
       <c r="B8" s="10">
-        <f>COUNTIF($F$19:$F$49698,"*Passed")</f>
+        <f>COUNTIF($F$19:$F$49699,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <f>COUNTIF($G$19:$G$49698,"*Passed")</f>
+        <f>COUNTIF($G$19:$G$49699,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <f>COUNTIF($H$19:$H$49698,"*Passed")</f>
+        <f>COUNTIF($H$19:$H$49699,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
@@ -1915,15 +1925,15 @@
         <v>10</v>
       </c>
       <c r="B9" s="10">
-        <f>COUNTIF($F$19:$F$49418,"*Failed*")</f>
+        <f>COUNTIF($F$19:$F$49419,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C9" s="10">
-        <f>COUNTIF($G$19:$G$49418,"*Failed*")</f>
+        <f>COUNTIF($G$19:$G$49419,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D9" s="10">
-        <f>COUNTIF($H$19:$H$49418,"*Failed*")</f>
+        <f>COUNTIF($H$19:$H$49419,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
@@ -1937,15 +1947,15 @@
         <v>11</v>
       </c>
       <c r="B10" s="10">
-        <f>COUNTIF($F$19:$F$49418,"*Not Run*")</f>
+        <f>COUNTIF($F$19:$F$49419,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <f>COUNTIF($G$19:$G$49418,"*Not Run*")</f>
+        <f>COUNTIF($G$19:$G$49419,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D10" s="10">
-        <f>COUNTIF($H$19:$H$49418,"*Not Run*")</f>
+        <f>COUNTIF($H$19:$H$49419,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E10" s="11"/>
@@ -1959,15 +1969,15 @@
         <v>12</v>
       </c>
       <c r="B11" s="10">
-        <f>COUNTIF($F$19:$F$49418,"*NA*")</f>
+        <f>COUNTIF($F$19:$F$49419,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C11" s="10">
-        <f>COUNTIF($G$19:$G$49418,"*NA*")</f>
+        <f>COUNTIF($G$19:$G$49419,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f>COUNTIF($H$19:$H$49418,"*NA*")</f>
+        <f>COUNTIF($H$19:$H$49419,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
@@ -1981,15 +1991,15 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <f>COUNTIF($F$19:$F$49418,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$19:$F$49419,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <f>COUNTIF($G$19:$G$49418,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$19:$G$49419,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="10">
-        <f>COUNTIF($H$19:$H$49418,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$19:$H$49419,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
@@ -2004,11 +2014,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="26.4">
@@ -2533,47 +2543,47 @@
       <c r="H41" s="28"/>
       <c r="I41" s="37"/>
     </row>
-    <row r="42" spans="1:9" ht="17.399999999999999">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21" t="s">
+    <row r="42" spans="1:9" ht="26.4">
+      <c r="A42" s="28">
+        <v>24</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.399999999999999">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9" ht="39.6">
-      <c r="A43" s="28">
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" ht="39.6">
+      <c r="A44" s="28">
         <v>25</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C44" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="37"/>
-    </row>
-    <row r="44" spans="1:9" ht="39.6">
-      <c r="A44" s="32">
-        <v>26</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>114</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>159</v>
@@ -2586,16 +2596,16 @@
     </row>
     <row r="45" spans="1:9" ht="39.6">
       <c r="A45" s="32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="28"/>
@@ -2604,14 +2614,14 @@
       <c r="I45" s="37"/>
     </row>
     <row r="46" spans="1:9" ht="39.6">
-      <c r="A46" s="28">
-        <v>28</v>
+      <c r="A46" s="32">
+        <v>27</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>160</v>
@@ -2623,17 +2633,17 @@
       <c r="I46" s="37"/>
     </row>
     <row r="47" spans="1:9" ht="39.6">
-      <c r="A47" s="32">
-        <v>29</v>
+      <c r="A47" s="28">
+        <v>28</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="28"/>
@@ -2643,13 +2653,13 @@
     </row>
     <row r="48" spans="1:9" ht="39.6">
       <c r="A48" s="32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>163</v>
@@ -2661,17 +2671,17 @@
       <c r="I48" s="37"/>
     </row>
     <row r="49" spans="1:9" ht="39.6">
-      <c r="A49" s="28">
-        <v>31</v>
+      <c r="A49" s="32">
+        <v>30</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="28"/>
@@ -2680,14 +2690,14 @@
       <c r="I49" s="37"/>
     </row>
     <row r="50" spans="1:9" ht="39.6">
-      <c r="A50" s="32">
-        <v>32</v>
+      <c r="A50" s="28">
+        <v>31</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>164</v>
@@ -2700,16 +2710,16 @@
     </row>
     <row r="51" spans="1:9" ht="39.6">
       <c r="A51" s="32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E51" s="30"/>
       <c r="F51" s="28"/>
@@ -2718,17 +2728,17 @@
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9" ht="39.6">
-      <c r="A52" s="28">
-        <v>34</v>
+      <c r="A52" s="32">
+        <v>33</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E52" s="30"/>
       <c r="F52" s="28"/>
@@ -2737,17 +2747,17 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9" ht="39.6">
-      <c r="A53" s="32">
+      <c r="A53" s="28">
+        <v>34</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="28" t="s">
-        <v>34</v>
-      </c>
       <c r="C53" s="28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="28"/>
@@ -2757,16 +2767,16 @@
     </row>
     <row r="54" spans="1:9" ht="39.6">
       <c r="A54" s="32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="28"/>
@@ -2775,17 +2785,17 @@
       <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9" ht="39.6">
-      <c r="A55" s="28">
-        <v>37</v>
+      <c r="A55" s="32">
+        <v>36</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="28"/>
@@ -2794,17 +2804,17 @@
       <c r="I55" s="37"/>
     </row>
     <row r="56" spans="1:9" ht="39.6">
-      <c r="A56" s="32">
-        <v>38</v>
+      <c r="A56" s="28">
+        <v>37</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="28"/>
@@ -2814,16 +2824,16 @@
     </row>
     <row r="57" spans="1:9" ht="39.6">
       <c r="A57" s="32">
-        <v>39</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E57" s="30"/>
       <c r="F57" s="28"/>
@@ -2832,14 +2842,14 @@
       <c r="I57" s="37"/>
     </row>
     <row r="58" spans="1:9" ht="39.6">
-      <c r="A58" s="28">
-        <v>40</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>40</v>
+      <c r="A58" s="32">
+        <v>39</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>166</v>
@@ -2851,17 +2861,17 @@
       <c r="I58" s="37"/>
     </row>
     <row r="59" spans="1:9" ht="39.6">
-      <c r="A59" s="32">
-        <v>41</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>62</v>
+      <c r="A59" s="28">
+        <v>40</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E59" s="30"/>
       <c r="F59" s="28"/>
@@ -2871,13 +2881,13 @@
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="32">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>167</v>
@@ -2889,17 +2899,17 @@
       <c r="I60" s="37"/>
     </row>
     <row r="61" spans="1:9" ht="39.6">
-      <c r="A61" s="28">
-        <v>43</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>70</v>
+      <c r="A61" s="32">
+        <v>42</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="28"/>
@@ -2907,15 +2917,15 @@
       <c r="H61" s="28"/>
       <c r="I61" s="37"/>
     </row>
-    <row r="62" spans="1:9" ht="52.8">
-      <c r="A62" s="32">
-        <v>44</v>
+    <row r="62" spans="1:9" ht="39.6">
+      <c r="A62" s="28">
+        <v>43</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>168</v>
@@ -2926,18 +2936,18 @@
       <c r="H62" s="28"/>
       <c r="I62" s="37"/>
     </row>
-    <row r="63" spans="1:9" ht="26.4">
+    <row r="63" spans="1:9" ht="52.8">
       <c r="A63" s="32">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="28"/>
@@ -2945,18 +2955,18 @@
       <c r="H63" s="28"/>
       <c r="I63" s="37"/>
     </row>
-    <row r="64" spans="1:9" ht="52.8">
-      <c r="A64" s="28">
-        <v>46</v>
+    <row r="64" spans="1:9" ht="26.4">
+      <c r="A64" s="32">
+        <v>45</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E64" s="30"/>
       <c r="F64" s="28"/>
@@ -2965,17 +2975,17 @@
       <c r="I64" s="37"/>
     </row>
     <row r="65" spans="1:9" ht="39.6">
-      <c r="A65" s="32">
-        <v>47</v>
+      <c r="A65" s="28">
+        <v>46</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="28"/>
@@ -2983,63 +2993,63 @@
       <c r="H65" s="28"/>
       <c r="I65" s="37"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="39.6">
       <c r="A66" s="32">
-        <v>48</v>
-      </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="30"/>
+        <v>47</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>171</v>
+      </c>
       <c r="E66" s="30"/>
       <c r="F66" s="28"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="37"/>
     </row>
-    <row r="67" spans="1:9" ht="17.399999999999999">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21" t="s">
+    <row r="67" spans="1:9">
+      <c r="A67" s="32">
+        <v>48</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="37"/>
+    </row>
+    <row r="68" spans="1:9" ht="17.399999999999999">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="1:9" ht="39.6">
-      <c r="A68" s="32">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="1:9" ht="39.6">
+      <c r="A69" s="32">
         <v>49</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B69" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C69" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D69" s="30" t="s">
         <v>173</v>
-      </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="37"/>
-    </row>
-    <row r="69" spans="1:9" ht="26.4">
-      <c r="A69" s="32">
-        <v>50</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>174</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="28"/>
@@ -3049,16 +3059,16 @@
     </row>
     <row r="70" spans="1:9" ht="26.4">
       <c r="A70" s="32">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C70" s="28" t="s">
         <v>139</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="28"/>
@@ -3066,76 +3076,76 @@
       <c r="H70" s="28"/>
       <c r="I70" s="37"/>
     </row>
-    <row r="71" spans="1:9" ht="17.399999999999999">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21" t="s">
+    <row r="71" spans="1:9" ht="26.4">
+      <c r="A71" s="32">
+        <v>51</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="30"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="37"/>
+    </row>
+    <row r="72" spans="1:9" ht="17.399999999999999">
+      <c r="A72" s="20"/>
+      <c r="B72" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="1:9" ht="52.8">
-      <c r="A72" s="28">
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" spans="1:9" ht="52.8">
+      <c r="A73" s="28">
         <v>52</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B73" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C73" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D73" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="37"/>
-    </row>
-    <row r="73" spans="1:9" ht="17.399999999999999">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21" t="s">
+      <c r="E73" s="30"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="37"/>
+    </row>
+    <row r="74" spans="1:9" ht="17.399999999999999">
+      <c r="A74" s="20"/>
+      <c r="B74" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:9" ht="39.6">
-      <c r="A74" s="28">
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="25"/>
+    </row>
+    <row r="75" spans="1:9" ht="39.6">
+      <c r="A75" s="28">
         <v>53</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B75" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="41"/>
-    </row>
-    <row r="75" spans="1:9" ht="39.6">
-      <c r="A75" s="32">
-        <v>54</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>141</v>
@@ -3151,16 +3161,16 @@
     </row>
     <row r="76" spans="1:9" ht="39.6">
       <c r="A76" s="32">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>141</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E76" s="30"/>
       <c r="F76" s="28"/>
@@ -3169,11 +3179,11 @@
       <c r="I76" s="41"/>
     </row>
     <row r="77" spans="1:9" ht="39.6">
-      <c r="A77" s="28">
-        <v>56</v>
+      <c r="A77" s="32">
+        <v>55</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>141</v>
@@ -3188,11 +3198,11 @@
       <c r="I77" s="41"/>
     </row>
     <row r="78" spans="1:9" ht="39.6">
-      <c r="A78" s="32">
-        <v>57</v>
+      <c r="A78" s="28">
+        <v>56</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>141</v>
@@ -3206,69 +3216,69 @@
       <c r="H78" s="28"/>
       <c r="I78" s="41"/>
     </row>
-    <row r="79" spans="1:9" ht="17.399999999999999">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21" t="s">
+    <row r="79" spans="1:9" ht="39.6">
+      <c r="A79" s="32">
+        <v>57</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="30"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="41"/>
+    </row>
+    <row r="80" spans="1:9" ht="17.399999999999999">
+      <c r="A80" s="20"/>
+      <c r="B80" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="25"/>
-    </row>
-    <row r="80" spans="1:9" ht="52.8">
-      <c r="A80" s="32">
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="25"/>
+    </row>
+    <row r="81" spans="1:9" ht="52.8">
+      <c r="A81" s="32">
         <v>58</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B81" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="43"/>
-    </row>
-    <row r="81" spans="1:9" ht="52.8">
-      <c r="A81" s="28">
-        <v>59</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>142</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="E81" s="43"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="43"/>
     </row>
     <row r="82" spans="1:9" ht="52.8">
-      <c r="A82" s="32">
-        <v>60</v>
+      <c r="A82" s="28">
+        <v>59</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>142</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E82" s="30"/>
       <c r="F82" s="28"/>
@@ -3277,30 +3287,30 @@
       <c r="I82" s="41"/>
     </row>
     <row r="83" spans="1:9" ht="52.8">
-      <c r="A83" s="28">
-        <v>61</v>
+      <c r="A83" s="32">
+        <v>60</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>142</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="45"/>
+        <v>178</v>
+      </c>
+      <c r="E83" s="30"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="41"/>
     </row>
     <row r="84" spans="1:9" ht="52.8">
-      <c r="A84" s="32">
-        <v>62</v>
+      <c r="A84" s="28">
+        <v>61</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C84" s="28" t="s">
         <v>142</v>
@@ -3308,37 +3318,37 @@
       <c r="D84" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="48"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="49"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="45"/>
     </row>
     <row r="85" spans="1:9" ht="52.8">
-      <c r="A85" s="28">
-        <v>63</v>
+      <c r="A85" s="32">
+        <v>62</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E85" s="50"/>
+        <v>179</v>
+      </c>
+      <c r="E85" s="48"/>
       <c r="F85" s="47"/>
       <c r="G85" s="47"/>
       <c r="H85" s="47"/>
       <c r="I85" s="49"/>
     </row>
     <row r="86" spans="1:9" ht="52.8">
-      <c r="A86" s="32">
-        <v>64</v>
+      <c r="A86" s="28">
+        <v>63</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C86" s="28" t="s">
         <v>143</v>
@@ -3346,24 +3356,24 @@
       <c r="D86" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="E86" s="48"/>
+      <c r="E86" s="50"/>
       <c r="F86" s="47"/>
       <c r="G86" s="47"/>
       <c r="H86" s="47"/>
       <c r="I86" s="49"/>
     </row>
     <row r="87" spans="1:9" ht="52.8">
-      <c r="A87" s="28">
-        <v>65</v>
+      <c r="A87" s="32">
+        <v>64</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>143</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E87" s="48"/>
       <c r="F87" s="47"/>
@@ -3372,17 +3382,17 @@
       <c r="I87" s="49"/>
     </row>
     <row r="88" spans="1:9" ht="52.8">
-      <c r="A88" s="32">
-        <v>66</v>
+      <c r="A88" s="28">
+        <v>65</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>143</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E88" s="48"/>
       <c r="F88" s="47"/>
@@ -3391,11 +3401,11 @@
       <c r="I88" s="49"/>
     </row>
     <row r="89" spans="1:9" ht="52.8">
-      <c r="A89" s="28">
-        <v>67</v>
+      <c r="A89" s="32">
+        <v>66</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C89" s="28" t="s">
         <v>143</v>
@@ -3410,66 +3420,72 @@
       <c r="I89" s="49"/>
     </row>
     <row r="90" spans="1:9" ht="52.8">
-      <c r="A90" s="32">
-        <v>68</v>
+      <c r="A90" s="28">
+        <v>67</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>143</v>
       </c>
       <c r="D90" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="48"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="49"/>
+    </row>
+    <row r="91" spans="1:9" ht="52.8">
+      <c r="A91" s="32">
+        <v>68</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="41"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="28">
+      <c r="E91" s="30"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="41"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="28">
         <v>69</v>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="45"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="32">
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="45"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="32">
         <v>70</v>
-      </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="41"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="28">
-        <v>71</v>
       </c>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="41"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="32">
-        <v>72</v>
+      <c r="A94" s="28">
+        <v>71</v>
       </c>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -3481,8 +3497,8 @@
       <c r="I94" s="41"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="28">
-        <v>73</v>
+      <c r="A95" s="32">
+        <v>72</v>
       </c>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -3494,8 +3510,8 @@
       <c r="I95" s="41"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="32">
-        <v>74</v>
+      <c r="A96" s="28">
+        <v>73</v>
       </c>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -3507,8 +3523,8 @@
       <c r="I96" s="41"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="28">
-        <v>75</v>
+      <c r="A97" s="32">
+        <v>74</v>
       </c>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -3520,8 +3536,8 @@
       <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="32">
-        <v>76</v>
+      <c r="A98" s="28">
+        <v>75</v>
       </c>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -3533,8 +3549,8 @@
       <c r="I98" s="41"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="28">
-        <v>77</v>
+      <c r="A99" s="32">
+        <v>76</v>
       </c>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -3546,34 +3562,34 @@
       <c r="I99" s="41"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="32">
+      <c r="A100" s="28">
+        <v>77</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="41"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="32">
         <v>78</v>
       </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="52"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="28">
+      <c r="B101" s="42"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="52"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="28">
         <v>79</v>
-      </c>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="41"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="32">
-        <v>80</v>
       </c>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
@@ -3585,10 +3601,10 @@
       <c r="I102" s="41"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="28">
-        <v>81</v>
-      </c>
-      <c r="B103" s="53"/>
+      <c r="A103" s="32">
+        <v>80</v>
+      </c>
+      <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
@@ -3598,8 +3614,8 @@
       <c r="I103" s="41"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="32">
-        <v>82</v>
+      <c r="A104" s="28">
+        <v>81</v>
       </c>
       <c r="B104" s="53"/>
       <c r="C104" s="28"/>
@@ -3611,8 +3627,8 @@
       <c r="I104" s="41"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="28">
-        <v>83</v>
+      <c r="A105" s="32">
+        <v>82</v>
       </c>
       <c r="B105" s="53"/>
       <c r="C105" s="28"/>
@@ -3623,38 +3639,40 @@
       <c r="H105" s="28"/>
       <c r="I105" s="41"/>
     </row>
-    <row r="106" spans="1:9" ht="17.399999999999999">
-      <c r="A106" s="40"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
-      <c r="I106" s="70"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="20"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="20"/>
+    <row r="106" spans="1:9">
+      <c r="A106" s="28">
+        <v>83</v>
+      </c>
+      <c r="B106" s="53"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="41"/>
+    </row>
+    <row r="107" spans="1:9" ht="17.399999999999999">
+      <c r="A107" s="40"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="83"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="41"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="41"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="20"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="41"/>
@@ -3679,81 +3697,81 @@
       <c r="I110" s="41"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="33"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="36"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="41"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="41"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="41"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="36"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="38"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="39"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="41"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="41"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="41"/>
-    </row>
-    <row r="115" spans="1:9" ht="17.399999999999999">
-      <c r="A115" s="54"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="55"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="55"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="20"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="20"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="39"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="41"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="41"/>
+    </row>
+    <row r="116" spans="1:9" ht="17.399999999999999">
+      <c r="A116" s="54"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="80"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="55"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="41"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="41"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="20"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="41"/>
@@ -3769,24 +3787,24 @@
     <row r="119" spans="1:9">
       <c r="A119" s="41"/>
       <c r="B119" s="28"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="57"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="41"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="41"/>
       <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="41"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="57"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="41"/>
@@ -3811,59 +3829,59 @@
       <c r="I122" s="41"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="33"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="36"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="41"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="41"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="41"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="36"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="38"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="39"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="41"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="50"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="57"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="39"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="41"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="42"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="41"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="57"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="41"/>
@@ -3877,26 +3895,26 @@
       <c r="I128" s="41"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="20"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="20"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="42"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="41"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="41"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="41"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="20"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="41"/>
@@ -3923,47 +3941,54 @@
     <row r="133" spans="1:9">
       <c r="A133" s="41"/>
       <c r="B133" s="42"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="58"/>
-      <c r="H133" s="58"/>
-      <c r="I133" s="59"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="41"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="41"/>
       <c r="B134" s="42"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
-      <c r="F134" s="60"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="60"/>
-      <c r="I134" s="61"/>
-    </row>
-    <row r="135" spans="1:9" ht="17.399999999999999">
-      <c r="A135" s="54"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="55"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="62"/>
-      <c r="B136" s="53"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="58"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="59"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="41"/>
+      <c r="B135" s="42"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="60"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="60"/>
+      <c r="I135" s="61"/>
+    </row>
+    <row r="136" spans="1:9" ht="17.399999999999999">
+      <c r="A136" s="54"/>
+      <c r="B136" s="78"/>
+      <c r="C136" s="79"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="56"/>
+      <c r="H136" s="56"/>
+      <c r="I136" s="55"/>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="62"/>
-      <c r="B137" s="42"/>
+      <c r="B137" s="53"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="62"/>
-      <c r="B138" s="63"/>
+      <c r="B138" s="42"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="62"/>
@@ -3973,114 +3998,114 @@
       <c r="A140" s="62"/>
       <c r="B140" s="63"/>
     </row>
-    <row r="141" spans="1:9" ht="17.399999999999999">
-      <c r="A141" s="54"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="56"/>
-      <c r="G141" s="56"/>
-      <c r="H141" s="56"/>
-      <c r="I141" s="55"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="62"/>
-      <c r="B142" s="53"/>
+    <row r="141" spans="1:9">
+      <c r="A141" s="62"/>
+      <c r="B141" s="63"/>
+    </row>
+    <row r="142" spans="1:9" ht="17.399999999999999">
+      <c r="A142" s="54"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="79"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="56"/>
+      <c r="G142" s="56"/>
+      <c r="H142" s="56"/>
+      <c r="I142" s="55"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="62"/>
       <c r="B143" s="53"/>
     </row>
-    <row r="144" spans="1:9" ht="17.399999999999999">
-      <c r="A144" s="54"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="55"/>
-      <c r="F144" s="56"/>
-      <c r="G144" s="56"/>
-      <c r="H144" s="56"/>
-      <c r="I144" s="55"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="62"/>
-      <c r="B145" s="53"/>
-    </row>
-    <row r="146" spans="1:2">
+    <row r="144" spans="1:9">
+      <c r="A144" s="62"/>
+      <c r="B144" s="53"/>
+    </row>
+    <row r="145" spans="1:9" ht="17.399999999999999">
+      <c r="A145" s="54"/>
+      <c r="B145" s="78"/>
+      <c r="C145" s="79"/>
+      <c r="D145" s="80"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="56"/>
+      <c r="I145" s="55"/>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="62"/>
       <c r="B146" s="53"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:9">
       <c r="A147" s="62"/>
       <c r="B147" s="53"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:9">
       <c r="A148" s="62"/>
       <c r="B148" s="53"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:9">
       <c r="A149" s="62"/>
       <c r="B149" s="53"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:9">
       <c r="A150" s="62"/>
       <c r="B150" s="53"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:9">
       <c r="A151" s="62"/>
       <c r="B151" s="53"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:9">
       <c r="A152" s="62"/>
       <c r="B152" s="53"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:9">
       <c r="A153" s="62"/>
-      <c r="B153" s="64"/>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="B153" s="53"/>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="62"/>
       <c r="B154" s="64"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:9">
       <c r="A155" s="62"/>
       <c r="B155" s="64"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:9">
       <c r="A156" s="62"/>
       <c r="B156" s="64"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:9">
       <c r="A157" s="62"/>
-      <c r="B157" s="53"/>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="B157" s="64"/>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="62"/>
       <c r="B158" s="53"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:9">
       <c r="A159" s="62"/>
       <c r="B159" s="53"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:9">
       <c r="A160" s="62"/>
       <c r="B160" s="53"/>
     </row>
-    <row r="161" spans="1:9" ht="17.399999999999999">
-      <c r="A161" s="54"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="66"/>
-      <c r="D161" s="67"/>
-      <c r="E161" s="55"/>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="55"/>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="62"/>
-      <c r="B162" s="53"/>
+    <row r="161" spans="1:9">
+      <c r="A161" s="62"/>
+      <c r="B161" s="53"/>
+    </row>
+    <row r="162" spans="1:9" ht="17.399999999999999">
+      <c r="A162" s="54"/>
+      <c r="B162" s="78"/>
+      <c r="C162" s="79"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="56"/>
+      <c r="G162" s="56"/>
+      <c r="H162" s="56"/>
+      <c r="I162" s="55"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="62"/>
@@ -4144,7 +4169,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="62"/>
-      <c r="B178" s="64"/>
+      <c r="B178" s="53"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="62"/>
@@ -4160,7 +4185,7 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="62"/>
-      <c r="B182" s="53"/>
+      <c r="B182" s="64"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="62"/>
@@ -4174,58 +4199,62 @@
       <c r="A185" s="62"/>
       <c r="B185" s="53"/>
     </row>
-    <row r="186" spans="1:9" ht="17.399999999999999">
-      <c r="A186" s="54"/>
-      <c r="B186" s="65"/>
-      <c r="C186" s="66"/>
-      <c r="D186" s="67"/>
-      <c r="E186" s="55"/>
-      <c r="F186" s="56"/>
-      <c r="G186" s="56"/>
-      <c r="H186" s="56"/>
-      <c r="I186" s="55"/>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="B187" s="53"/>
-    </row>
-    <row r="188" spans="1:9" ht="17.399999999999999">
-      <c r="A188" s="54"/>
-      <c r="B188" s="65"/>
-      <c r="C188" s="66"/>
-      <c r="D188" s="67"/>
-      <c r="E188" s="55"/>
-      <c r="F188" s="56"/>
-      <c r="G188" s="56"/>
-      <c r="H188" s="56"/>
-      <c r="I188" s="55"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="B189" s="53"/>
+    <row r="186" spans="1:9">
+      <c r="A186" s="62"/>
+      <c r="B186" s="53"/>
+    </row>
+    <row r="187" spans="1:9" ht="17.399999999999999">
+      <c r="A187" s="54"/>
+      <c r="B187" s="78"/>
+      <c r="C187" s="79"/>
+      <c r="D187" s="80"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="56"/>
+      <c r="G187" s="56"/>
+      <c r="H187" s="56"/>
+      <c r="I187" s="55"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="B188" s="53"/>
+    </row>
+    <row r="189" spans="1:9" ht="17.399999999999999">
+      <c r="A189" s="54"/>
+      <c r="B189" s="78"/>
+      <c r="C189" s="79"/>
+      <c r="D189" s="80"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="56"/>
+      <c r="G189" s="56"/>
+      <c r="H189" s="56"/>
+      <c r="I189" s="55"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="B190" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B142:D142"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="F188:H188 F113:H113 F100:H100 F115:H115 F119:H119 F111:H111 F123:H123 F125:H126 F135:H135 F141:H141 F144:H144 F161:H161 F186:H186 F72:H72 F43:H66 F68:H70 F17:H28 F30:H41 F74:H78 F80:H95" xr:uid="{641D0B59-9F7A-4146-88C9-63F287AF6B0F}">
+    <dataValidation type="list" allowBlank="1" sqref="F189:H189 F114:H114 F101:H101 F116:H116 F120:H120 F112:H112 F124:H124 F126:H127 F136:H136 F142:H142 F145:H145 F162:H162 F187:H187 F73:H73 F44:H67 F69:H71 F17:H28 F81:H96 F75:H79 F30:H42" xr:uid="{641D0B59-9F7A-4146-88C9-63F287AF6B0F}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14" xr:uid="{EE9D79CC-594A-4FE4-B396-6629865F8993}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:H16 F129:H129 F116:H116 F107:H107 F67:H67 F71:H71 F29:H29 F73:H73 F42:H42 F79:H79" xr:uid="{AFE353BF-6ED8-4B85-9727-99B859B3ABD0}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F133:H133" xr:uid="{40686292-304A-437C-B5C1-492CBF8F2D4A}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:H16 F130:H130 F117:H117 F108:H108 F68:H68 F72:H72 F29:H29 F74:H74 F43:H43 F80:H80" xr:uid="{AFE353BF-6ED8-4B85-9727-99B859B3ABD0}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F134:H134" xr:uid="{40686292-304A-437C-B5C1-492CBF8F2D4A}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Mid term/Test Case/Mid term Test Case Assignment 3.xlsx
+++ b/Mid term/Test Case/Mid term Test Case Assignment 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Nashtech\Mid term\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF87454C-0951-401A-AA1F-E4DBD862C847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A612DE65-194A-43A3-9876-BB5C278BBAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{02CC2052-6F2B-4E0E-B93A-A1851046750D}"/>
   </bookViews>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="1" shapeId="0" xr:uid="{BEE8EF2A-21EC-4141-BE8E-894F20B10FC7}">
+    <comment ref="F81" authorId="1" shapeId="0" xr:uid="{BEE8EF2A-21EC-4141-BE8E-894F20B10FC7}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G80" authorId="1" shapeId="0" xr:uid="{105547A9-A836-449D-9189-D3CBB44129C5}">
+    <comment ref="G81" authorId="1" shapeId="0" xr:uid="{105547A9-A836-449D-9189-D3CBB44129C5}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F108" authorId="1" shapeId="0" xr:uid="{8DB2644B-F042-4334-9755-B8FAE635CA29}">
+    <comment ref="F109" authorId="1" shapeId="0" xr:uid="{8DB2644B-F042-4334-9755-B8FAE635CA29}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F110" authorId="1" shapeId="0" xr:uid="{4AC6A30D-8F36-4EE9-8A83-F52F5B0BB461}">
+    <comment ref="F111" authorId="1" shapeId="0" xr:uid="{4AC6A30D-8F36-4EE9-8A83-F52F5B0BB461}">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="157">
   <si>
     <t>User Story 2</t>
   </si>
@@ -699,9 +699,6 @@
     <t>Check when the Result page has 0 items</t>
   </si>
   <si>
-    <t>Check when the Result page has less than or equal to 10 items</t>
-  </si>
-  <si>
     <t>Check when the Result page has more than 10 items</t>
   </si>
   <si>
@@ -723,6 +720,15 @@
   </si>
   <si>
     <t>Verify that users can use " … " to do a leap jump to the next 5 pages</t>
+  </si>
+  <si>
+    <t>Check when the Result page has 10 items</t>
+  </si>
+  <si>
+    <t>Check when the Result page has less than 10 items</t>
+  </si>
+  <si>
+    <t>The result page shows less than 10 items and doesn’t show the page's link number to second page</t>
   </si>
 </sst>
 </file>
@@ -1207,6 +1213,45 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1223,45 +1268,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1579,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8483E831-5D5C-4FE4-892A-2F8425F39E30}">
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1598,11 +1604,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1613,9 +1619,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1626,11 +1632,11 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1641,11 +1647,11 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1656,9 +1662,9 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1714,15 +1720,15 @@
         <v>9</v>
       </c>
       <c r="B8" s="10">
-        <f>COUNTIF($F$19:$F$49676,"*Passed")</f>
+        <f>COUNTIF($F$19:$F$49677,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <f>COUNTIF($G$19:$G$49676,"*Passed")</f>
+        <f>COUNTIF($G$19:$G$49677,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <f>COUNTIF($H$19:$H$49676,"*Passed")</f>
+        <f>COUNTIF($H$19:$H$49677,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
@@ -1736,15 +1742,15 @@
         <v>10</v>
       </c>
       <c r="B9" s="10">
-        <f>COUNTIF($F$19:$F$49396,"*Failed*")</f>
+        <f>COUNTIF($F$19:$F$49397,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C9" s="10">
-        <f>COUNTIF($G$19:$G$49396,"*Failed*")</f>
+        <f>COUNTIF($G$19:$G$49397,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D9" s="10">
-        <f>COUNTIF($H$19:$H$49396,"*Failed*")</f>
+        <f>COUNTIF($H$19:$H$49397,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
@@ -1758,15 +1764,15 @@
         <v>11</v>
       </c>
       <c r="B10" s="10">
-        <f>COUNTIF($F$19:$F$49396,"*Not Run*")</f>
+        <f>COUNTIF($F$19:$F$49397,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <f>COUNTIF($G$19:$G$49396,"*Not Run*")</f>
+        <f>COUNTIF($G$19:$G$49397,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D10" s="10">
-        <f>COUNTIF($H$19:$H$49396,"*Not Run*")</f>
+        <f>COUNTIF($H$19:$H$49397,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E10" s="11"/>
@@ -1780,15 +1786,15 @@
         <v>12</v>
       </c>
       <c r="B11" s="10">
-        <f>COUNTIF($F$19:$F$49396,"*NA*")</f>
+        <f>COUNTIF($F$19:$F$49397,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C11" s="10">
-        <f>COUNTIF($G$19:$G$49396,"*NA*")</f>
+        <f>COUNTIF($G$19:$G$49397,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f>COUNTIF($H$19:$H$49396,"*NA*")</f>
+        <f>COUNTIF($H$19:$H$49397,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
@@ -1802,15 +1808,15 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <f>COUNTIF($F$19:$F$49396,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$19:$F$49397,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <f>COUNTIF($G$19:$G$49396,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$19:$G$49397,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="10">
-        <f>COUNTIF($H$19:$H$49396,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$19:$H$49397,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
@@ -1825,11 +1831,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="26.4">
@@ -2508,7 +2514,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>112</v>
@@ -2713,7 +2719,7 @@
         <v>87</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E62" s="30"/>
       <c r="F62" s="28"/>
@@ -2726,13 +2732,13 @@
         <v>42</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="28"/>
@@ -2741,17 +2747,17 @@
       <c r="I63" s="41"/>
     </row>
     <row r="64" spans="1:9" ht="39.6">
-      <c r="A64" s="32">
-        <v>43</v>
+      <c r="A64" s="28">
+        <v>42</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E64" s="30"/>
       <c r="F64" s="28"/>
@@ -2759,126 +2765,132 @@
       <c r="H64" s="28"/>
       <c r="I64" s="41"/>
     </row>
-    <row r="65" spans="1:9" ht="17.399999999999999">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21" t="s">
+    <row r="65" spans="1:9" ht="39.6">
+      <c r="A65" s="32">
+        <v>43</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="30"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="41"/>
+    </row>
+    <row r="66" spans="1:9" ht="17.399999999999999">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="25"/>
-    </row>
-    <row r="66" spans="1:9" ht="52.8">
-      <c r="A66" s="32">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="25"/>
+    </row>
+    <row r="67" spans="1:9" ht="52.8">
+      <c r="A67" s="32">
         <v>44</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B67" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C67" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D67" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="43"/>
-    </row>
-    <row r="67" spans="1:9" ht="52.8">
-      <c r="A67" s="28">
+      <c r="E67" s="43"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="43"/>
+    </row>
+    <row r="68" spans="1:9" ht="52.8">
+      <c r="A68" s="28">
         <v>45</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B68" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="48"/>
-    </row>
-    <row r="68" spans="1:9" ht="52.8">
-      <c r="A68" s="32">
-        <v>46</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>89</v>
       </c>
       <c r="D68" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="48"/>
+    </row>
+    <row r="69" spans="1:9" ht="52.8">
+      <c r="A69" s="32">
+        <v>46</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="41"/>
-    </row>
-    <row r="69" spans="1:9" ht="26.4">
-      <c r="A69" s="28">
+      <c r="E69" s="30"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="41"/>
+    </row>
+    <row r="70" spans="1:9" ht="26.4">
+      <c r="A70" s="28">
         <v>47</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B70" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="45"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="32">
+        <v>48</v>
+      </c>
+      <c r="B71" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="45"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="32">
-        <v>48</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="41"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="28">
-        <v>49</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>154</v>
-      </c>
       <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="30"/>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="41"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="32">
-        <v>50</v>
-      </c>
-      <c r="B72" s="28"/>
+      <c r="A72" s="28">
+        <v>49</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>153</v>
+      </c>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
@@ -2888,8 +2900,8 @@
       <c r="I72" s="41"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="28">
-        <v>51</v>
+      <c r="A73" s="32">
+        <v>50</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -2901,8 +2913,8 @@
       <c r="I73" s="41"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="32">
-        <v>52</v>
+      <c r="A74" s="28">
+        <v>51</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -2914,8 +2926,8 @@
       <c r="I74" s="41"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="28">
-        <v>53</v>
+      <c r="A75" s="32">
+        <v>52</v>
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -2927,8 +2939,8 @@
       <c r="I75" s="41"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="32">
-        <v>54</v>
+      <c r="A76" s="28">
+        <v>53</v>
       </c>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -2940,8 +2952,8 @@
       <c r="I76" s="41"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="28">
-        <v>55</v>
+      <c r="A77" s="32">
+        <v>54</v>
       </c>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -2953,34 +2965,34 @@
       <c r="I77" s="41"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="32">
+      <c r="A78" s="28">
+        <v>55</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="41"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="32">
         <v>56</v>
       </c>
-      <c r="B78" s="42"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="51"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="28">
+      <c r="B79" s="42"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="51"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="28">
         <v>57</v>
-      </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="41"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="32">
-        <v>58</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -2992,10 +3004,10 @@
       <c r="I80" s="41"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="28">
-        <v>59</v>
-      </c>
-      <c r="B81" s="52"/>
+      <c r="A81" s="32">
+        <v>58</v>
+      </c>
+      <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
@@ -3005,8 +3017,8 @@
       <c r="I81" s="41"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="32">
-        <v>60</v>
+      <c r="A82" s="28">
+        <v>59</v>
       </c>
       <c r="B82" s="52"/>
       <c r="C82" s="28"/>
@@ -3018,8 +3030,8 @@
       <c r="I82" s="41"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="28">
-        <v>61</v>
+      <c r="A83" s="32">
+        <v>60</v>
       </c>
       <c r="B83" s="52"/>
       <c r="C83" s="28"/>
@@ -3030,38 +3042,40 @@
       <c r="H83" s="28"/>
       <c r="I83" s="41"/>
     </row>
-    <row r="84" spans="1:9" ht="17.399999999999999">
-      <c r="A84" s="40"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="69"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="20"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="20"/>
+    <row r="84" spans="1:9">
+      <c r="A84" s="28">
+        <v>61</v>
+      </c>
+      <c r="B84" s="52"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="41"/>
+    </row>
+    <row r="85" spans="1:9" ht="17.399999999999999">
+      <c r="A85" s="40"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="82"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="41"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="41"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="41"/>
@@ -3086,81 +3100,81 @@
       <c r="I88" s="41"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="33"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="36"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="41"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="41"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="41"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="36"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="38"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="39"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="41"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="41"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="41"/>
-    </row>
-    <row r="93" spans="1:9" ht="17.399999999999999">
-      <c r="A93" s="53"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="54"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="20"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="20"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="39"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="41"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="41"/>
+    </row>
+    <row r="94" spans="1:9" ht="17.399999999999999">
+      <c r="A94" s="53"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="54"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="41"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="41"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="41"/>
@@ -3176,24 +3190,24 @@
     <row r="97" spans="1:9">
       <c r="A97" s="41"/>
       <c r="B97" s="28"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="56"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="41"/>
       <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="41"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="56"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="41"/>
@@ -3218,59 +3232,59 @@
       <c r="I100" s="41"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="33"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="36"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="41"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="41"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="41"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="38"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="39"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="41"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="49"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="56"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="39"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="41"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="42"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="41"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="56"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="41"/>
@@ -3284,26 +3298,26 @@
       <c r="I106" s="41"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="20"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="20"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="41"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="41"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="41"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="20"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="41"/>
@@ -3330,47 +3344,54 @@
     <row r="111" spans="1:9">
       <c r="A111" s="41"/>
       <c r="B111" s="42"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="58"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="41"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="41"/>
       <c r="B112" s="42"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
-      <c r="I112" s="60"/>
-    </row>
-    <row r="113" spans="1:9" ht="17.399999999999999">
-      <c r="A113" s="53"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="54"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="61"/>
-      <c r="B114" s="52"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="58"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="41"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="60"/>
+    </row>
+    <row r="114" spans="1:9" ht="17.399999999999999">
+      <c r="A114" s="53"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="54"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="61"/>
-      <c r="B115" s="42"/>
+      <c r="B115" s="52"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="61"/>
-      <c r="B116" s="62"/>
+      <c r="B116" s="42"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="61"/>
@@ -3380,39 +3401,39 @@
       <c r="A118" s="61"/>
       <c r="B118" s="62"/>
     </row>
-    <row r="119" spans="1:9" ht="17.399999999999999">
-      <c r="A119" s="53"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="54"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="61"/>
-      <c r="B120" s="52"/>
+    <row r="119" spans="1:9">
+      <c r="A119" s="61"/>
+      <c r="B119" s="62"/>
+    </row>
+    <row r="120" spans="1:9" ht="17.399999999999999">
+      <c r="A120" s="53"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="54"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="54"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="61"/>
       <c r="B121" s="52"/>
     </row>
-    <row r="122" spans="1:9" ht="17.399999999999999">
-      <c r="A122" s="53"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="66"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="54"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
-      <c r="B123" s="52"/>
+    <row r="122" spans="1:9">
+      <c r="A122" s="61"/>
+      <c r="B122" s="52"/>
+    </row>
+    <row r="123" spans="1:9" ht="17.399999999999999">
+      <c r="A123" s="53"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="54"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="61"/>
@@ -3444,7 +3465,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="61"/>
-      <c r="B131" s="63"/>
+      <c r="B131" s="52"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="61"/>
@@ -3460,7 +3481,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="61"/>
-      <c r="B135" s="52"/>
+      <c r="B135" s="63"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="61"/>
@@ -3474,20 +3495,20 @@
       <c r="A138" s="61"/>
       <c r="B138" s="52"/>
     </row>
-    <row r="139" spans="1:9" ht="17.399999999999999">
-      <c r="A139" s="53"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="55"/>
-      <c r="I139" s="54"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="61"/>
-      <c r="B140" s="52"/>
+    <row r="139" spans="1:9">
+      <c r="A139" s="61"/>
+      <c r="B139" s="52"/>
+    </row>
+    <row r="140" spans="1:9" ht="17.399999999999999">
+      <c r="A140" s="53"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="78"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="54"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="61"/>
@@ -3551,7 +3572,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="61"/>
-      <c r="B156" s="63"/>
+      <c r="B156" s="52"/>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="61"/>
@@ -3567,7 +3588,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="61"/>
-      <c r="B160" s="52"/>
+      <c r="B160" s="63"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="61"/>
@@ -3581,58 +3602,62 @@
       <c r="A163" s="61"/>
       <c r="B163" s="52"/>
     </row>
-    <row r="164" spans="1:9" ht="17.399999999999999">
-      <c r="A164" s="53"/>
-      <c r="B164" s="64"/>
-      <c r="C164" s="65"/>
-      <c r="D164" s="66"/>
-      <c r="E164" s="54"/>
-      <c r="F164" s="55"/>
-      <c r="G164" s="55"/>
-      <c r="H164" s="55"/>
-      <c r="I164" s="54"/>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="B165" s="52"/>
-    </row>
-    <row r="166" spans="1:9" ht="17.399999999999999">
-      <c r="A166" s="53"/>
-      <c r="B166" s="64"/>
-      <c r="C166" s="65"/>
-      <c r="D166" s="66"/>
-      <c r="E166" s="54"/>
-      <c r="F166" s="55"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="55"/>
-      <c r="I166" s="54"/>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="B167" s="52"/>
+    <row r="164" spans="1:9">
+      <c r="A164" s="61"/>
+      <c r="B164" s="52"/>
+    </row>
+    <row r="165" spans="1:9" ht="17.399999999999999">
+      <c r="A165" s="53"/>
+      <c r="B165" s="77"/>
+      <c r="C165" s="78"/>
+      <c r="D165" s="79"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="55"/>
+      <c r="G165" s="55"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="54"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="B166" s="52"/>
+    </row>
+    <row r="167" spans="1:9" ht="17.399999999999999">
+      <c r="A167" s="53"/>
+      <c r="B167" s="77"/>
+      <c r="C167" s="78"/>
+      <c r="D167" s="79"/>
+      <c r="E167" s="54"/>
+      <c r="F167" s="55"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="55"/>
+      <c r="I167" s="54"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="B168" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B85:I85"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B120:D120"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B84:I84"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B119:D119"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="F166:H166 F91:H91 F78:H78 F93:H93 F97:H97 F89:H89 F101:H101 F103:H104 F113:H113 F119:H119 F122:H122 F139:H139 F164:H164 F60:H60 F56:H58 F17:H28 F62:H64 F41:H54 F30:H39 F66:H73" xr:uid="{641D0B59-9F7A-4146-88C9-63F287AF6B0F}">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" sqref="F167:H167 F92:H92 F79:H79 F94:H94 F98:H98 F90:H90 F102:H102 F104:H105 F114:H114 F120:H120 F123:H123 F140:H140 F165:H165 F60:H60 F56:H58 F17:H28 F67:H74 F41:H54 F30:H39 F62:H65" xr:uid="{641D0B59-9F7A-4146-88C9-63F287AF6B0F}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14" xr:uid="{EE9D79CC-594A-4FE4-B396-6629865F8993}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:H16 F107:H107 F94:H94 F85:H85 F55:H55 F59:H59 F29:H29 F61:H61 F65:H65 F40:H40" xr:uid="{AFE353BF-6ED8-4B85-9727-99B859B3ABD0}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F111:H111" xr:uid="{40686292-304A-437C-B5C1-492CBF8F2D4A}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:H16 F108:H108 F95:H95 F86:H86 F55:H55 F59:H59 F29:H29 F61:H61 F66:H66 F40:H40" xr:uid="{AFE353BF-6ED8-4B85-9727-99B859B3ABD0}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F112:H112" xr:uid="{40686292-304A-437C-B5C1-492CBF8F2D4A}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
